--- a/Advanced Excel Financial Modeling- KareyW.xlsx
+++ b/Advanced Excel Financial Modeling- KareyW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fca16039ea603866/Desktop/Comp Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="11_3154FD81C03E81F29F7E149756C230E79225A205" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{007D1740-E5A6-4DA8-A35F-1155DC5C64BD}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="11_3154FD81C03E81F29F7E149756C230E79225A205" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350F9608-6231-407B-AFC1-48C0AFE938AB}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="11700" windowWidth="25990" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8290" yWindow="2860" windowWidth="25990" windowHeight="17510" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula Writing" sheetId="4" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="212">
   <si>
     <t>Variance</t>
   </si>
@@ -1194,9 +1194,6 @@
     <t>Notes- Karey W</t>
   </si>
   <si>
-    <t>Goal seek is where we have the end result and we want to find out what x is from x+5=20</t>
-  </si>
-  <si>
     <t>Karey will determine the NPV of the cash flows below (assuming cash flows happen at the end of the period)</t>
   </si>
   <si>
@@ -1251,12 +1248,6 @@
     <t>The VBA will have the message box pop up with the toal daily volume #</t>
   </si>
   <si>
-    <t>https://courses.bootcampspot.com/courses/2456/pages/2-dot-2-4-get-dqs-yearly-return-for-2018?module_item_id=792533</t>
-  </si>
-  <si>
-    <t>Daqo dropped over 63% in 2018—yikes! Steve will definitely want to offer some better stocks to his parents.</t>
-  </si>
-  <si>
     <t>VSLR</t>
   </si>
   <si>
@@ -1297,6 +1288,9 @@
   </si>
   <si>
     <t>All Stocks (2018)</t>
+  </si>
+  <si>
+    <t>Goal seek is where we have the end result and we want to find out what x is from x+y=z</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2083,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyAlignment="1">
@@ -2700,9 +2694,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2814,55 +2805,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>511573</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>142943</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C8CA49-7053-C795-9369-D6CE83F88A83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10302875" y="11572876"/>
-          <a:ext cx="7734698" cy="1301817"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3752,7 +3694,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4546,7 +4488,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4939,8 +4881,8 @@
   </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
@@ -5533,10 +5475,10 @@
       <c r="P22" s="223"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C23" s="255" t="s">
+      <c r="C23" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="256"/>
+      <c r="D23" s="255"/>
       <c r="E23" s="192">
         <f>E17/E16</f>
         <v>0.3749922671377412</v>
@@ -5778,8 +5720,8 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
@@ -6188,11 +6130,11 @@
         <v>988589.62945419003</v>
       </c>
       <c r="K28" s="179"/>
-      <c r="L28" s="258" t="s">
+      <c r="L28" s="257" t="s">
         <v>183</v>
       </c>
-      <c r="M28" s="258"/>
-      <c r="N28" s="258"/>
+      <c r="M28" s="257"/>
+      <c r="N28" s="257"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B29" s="148" t="s">
@@ -6228,9 +6170,9 @@
         <v>484408.91843255312</v>
       </c>
       <c r="K29" s="179"/>
-      <c r="L29" s="258"/>
-      <c r="M29" s="258"/>
-      <c r="N29" s="258"/>
+      <c r="L29" s="257"/>
+      <c r="M29" s="257"/>
+      <c r="N29" s="257"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B30" s="148" t="s">
@@ -6266,9 +6208,9 @@
         <v>158174.34071267041</v>
       </c>
       <c r="K30" s="179"/>
-      <c r="L30" s="258"/>
-      <c r="M30" s="258"/>
-      <c r="N30" s="258"/>
+      <c r="L30" s="257"/>
+      <c r="M30" s="257"/>
+      <c r="N30" s="257"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B31" s="148" t="s">
@@ -6304,9 +6246,9 @@
         <v>197717.92589083803</v>
       </c>
       <c r="K31" s="179"/>
-      <c r="L31" s="258"/>
-      <c r="M31" s="258"/>
-      <c r="N31" s="258"/>
+      <c r="L31" s="257"/>
+      <c r="M31" s="257"/>
+      <c r="N31" s="257"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B32" s="148" t="s">
@@ -6756,7 +6698,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="175"/>
       <c r="L50" s="147" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -6825,7 +6767,7 @@
       <c r="L58" s="155"/>
     </row>
     <row r="59" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="257" t="s">
+      <c r="B59" s="256" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="161">
@@ -6856,7 +6798,7 @@
       <c r="K59" s="184"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="257"/>
+      <c r="B60" s="256"/>
       <c r="C60" s="161">
         <v>0.42000000000000004</v>
       </c>
@@ -6884,7 +6826,7 @@
       <c r="K60" s="184"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="257"/>
+      <c r="B61" s="256"/>
       <c r="C61" s="161">
         <v>0.44000000000000006</v>
       </c>
@@ -6912,7 +6854,7 @@
       <c r="K61" s="184"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="257"/>
+      <c r="B62" s="256"/>
       <c r="C62" s="161">
         <v>0.46000000000000008</v>
       </c>
@@ -6940,7 +6882,7 @@
       <c r="K62" s="184"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="257"/>
+      <c r="B63" s="256"/>
       <c r="C63" s="161">
         <v>0.48000000000000009</v>
       </c>
@@ -6968,7 +6910,7 @@
       <c r="K63" s="184"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="257"/>
+      <c r="B64" s="256"/>
       <c r="C64" s="161">
         <v>0.50000000000000011</v>
       </c>
@@ -7028,7 +6970,6 @@
     <brk id="18" min="1" max="12" man="1"/>
     <brk id="49" min="1" max="12" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7040,7 +6981,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -7154,13 +7095,13 @@
       <c r="C9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="259" t="s">
+      <c r="D9" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="259"/>
+      <c r="E9" s="258"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="258"/>
     </row>
     <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.6">
       <c r="B10" s="26"/>
@@ -7352,8 +7293,8 @@
   </sheetPr>
   <dimension ref="B1:M53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -7417,10 +7358,10 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="219" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="218" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="218"/>
@@ -7715,10 +7656,10 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B49" s="219" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="220" t="s">
         <v>188</v>
-      </c>
-      <c r="C49" s="220" t="s">
-        <v>189</v>
       </c>
       <c r="D49" s="220"/>
       <c r="E49" s="220"/>
@@ -7736,19 +7677,19 @@
       </c>
       <c r="E51" s="224">
         <f ca="1">TODAY()</f>
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="F51" s="224">
         <f ca="1">TODAY()+200</f>
-        <v>45164</v>
+        <v>45166</v>
       </c>
       <c r="G51" s="224">
         <f ca="1">TODAY()+400</f>
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="H51" s="224">
         <f ca="1">TODAY()+600</f>
-        <v>45564</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.45">
@@ -7855,7 +7796,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="220" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="220"/>
     </row>
@@ -7949,7 +7890,7 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" s="62"/>
       <c r="C23" s="228" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18" x14ac:dyDescent="0.6">
@@ -8124,7 +8065,7 @@
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" s="62"/>
       <c r="C47" s="228" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D47" s="220"/>
       <c r="E47" s="220"/>
@@ -8154,37 +8095,37 @@
       <c r="B49" s="62"/>
       <c r="C49" s="82">
         <f ca="1">C51</f>
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="D49" s="82">
         <f ca="1">D51</f>
-        <v>45164</v>
+        <v>45166</v>
       </c>
       <c r="E49" s="82">
         <f ca="1">E51</f>
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="F49" s="82">
         <f ca="1">F51</f>
-        <v>45564</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="18" x14ac:dyDescent="0.6">
       <c r="C51" s="76">
         <f ca="1">TODAY()</f>
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="D51" s="76">
         <f ca="1">TODAY()+200</f>
-        <v>45164</v>
+        <v>45166</v>
       </c>
       <c r="E51" s="76">
         <f ca="1">TODAY()+400</f>
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="F51" s="76">
         <f ca="1">TODAY()+600</f>
-        <v>45564</v>
+        <v>45566</v>
       </c>
       <c r="G51" s="63" t="s">
         <v>128</v>
@@ -8276,18 +8217,18 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B64" s="260" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="260"/>
-      <c r="D64" s="260"/>
-      <c r="E64" s="260"/>
-      <c r="F64" s="260"/>
-      <c r="G64" s="260"/>
-      <c r="H64" s="260"/>
-      <c r="I64" s="260"/>
-      <c r="J64" s="260"/>
-      <c r="K64" s="260"/>
+      <c r="B64" s="259" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="259"/>
+      <c r="D64" s="259"/>
+      <c r="E64" s="259"/>
+      <c r="F64" s="259"/>
+      <c r="G64" s="259"/>
+      <c r="H64" s="259"/>
+      <c r="I64" s="259"/>
+      <c r="J64" s="259"/>
+      <c r="K64" s="259"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" s="231" t="s">
@@ -8367,7 +8308,7 @@
       </c>
       <c r="C70" s="234">
         <f ca="1">YIELD(TODAY(),C69,C66/100,C65,C68,4)</f>
-        <v>9.0693167217636927E-2</v>
+        <v>9.0862002653224916E-2</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -8380,7 +8321,7 @@
       <c r="B71" s="14"/>
       <c r="C71" s="230">
         <f ca="1">YIELD(TODAY(),C69,C66/100,C65,C68,4)</f>
-        <v>9.0693167217636927E-2</v>
+        <v>9.0862002653224916E-2</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
@@ -8403,10 +8344,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8420,36 +8361,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="236" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="237"/>
       <c r="J1" s="239"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="245" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="246" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="247" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="248">
+      <c r="A4" s="247">
         <v>2018</v>
       </c>
-      <c r="B4" s="249">
+      <c r="B4" s="248">
         <v>107873900</v>
       </c>
-      <c r="C4" s="250">
+      <c r="C4" s="249">
         <v>-0.62601885887805664</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="240" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="241"/>
       <c r="C8" s="242"/>
@@ -8490,18 +8431,6 @@
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="243"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I91" s="236" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" s="239" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="2"/>
-      <c r="C93" s="244"/>
-      <c r="I93" s="239" t="s">
-        <v>199</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8517,8 +8446,8 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8530,149 +8459,149 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="254" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="254" t="s">
+      <c r="A3" s="253" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="253" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="253" t="s">
         <v>195</v>
-      </c>
-      <c r="C3" s="254" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="252">
+        <v>208</v>
+      </c>
+      <c r="B4" s="251">
         <v>83079900</v>
       </c>
-      <c r="C4" s="251">
+      <c r="C4" s="250">
         <v>-7.2847634553909302E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="252">
+        <v>207</v>
+      </c>
+      <c r="B5" s="251">
         <v>200879900</v>
       </c>
-      <c r="C5" s="251">
+      <c r="C5" s="250">
         <v>-0.16336052119731903</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="252">
+        <v>206</v>
+      </c>
+      <c r="B6" s="251">
         <v>107873900</v>
       </c>
-      <c r="C6" s="251">
+      <c r="C6" s="250">
         <v>-0.62601888179779053</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="252">
+        <v>205</v>
+      </c>
+      <c r="B7" s="251">
         <v>607473500</v>
       </c>
-      <c r="C7" s="253">
+      <c r="C7" s="252">
         <v>0.81923085451126099</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="252">
+        <v>204</v>
+      </c>
+      <c r="B8" s="251">
         <v>478113900</v>
       </c>
-      <c r="C8" s="251">
+      <c r="C8" s="250">
         <v>-0.39713191986083984</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="252">
+        <v>203</v>
+      </c>
+      <c r="B9" s="251">
         <v>104340600</v>
       </c>
-      <c r="C9" s="251">
+      <c r="C9" s="250">
         <v>-0.20658062398433685</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="252">
+        <v>202</v>
+      </c>
+      <c r="B10" s="251">
         <v>158309000</v>
       </c>
-      <c r="C10" s="251">
+      <c r="C10" s="250">
         <v>-0.6053471565246582</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="252">
+        <v>201</v>
+      </c>
+      <c r="B11" s="251">
         <v>502757100</v>
       </c>
-      <c r="C11" s="253">
+      <c r="C11" s="252">
         <v>0.83952707052230835</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="252">
+        <v>200</v>
+      </c>
+      <c r="B12" s="251">
         <v>237212300</v>
       </c>
-      <c r="C12" s="251">
+      <c r="C12" s="250">
         <v>-7.7529586851596832E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="252">
+        <v>199</v>
+      </c>
+      <c r="B13" s="251">
         <v>538024300</v>
       </c>
-      <c r="C13" s="251">
+      <c r="C13" s="250">
         <v>-0.44593092799186707</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="252">
+        <v>198</v>
+      </c>
+      <c r="B14" s="251">
         <v>151434700</v>
       </c>
-      <c r="C14" s="251">
+      <c r="C14" s="250">
         <v>-4.9957673996686935E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="252">
+        <v>197</v>
+      </c>
+      <c r="B15" s="251">
         <v>136539100</v>
       </c>
-      <c r="C15" s="251">
+      <c r="C15" s="250">
         <v>-3.5443063825368881E-2</v>
       </c>
     </row>
@@ -8725,12 +8654,12 @@
       <c r="E2" s="93"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="264" t="s">
+      <c r="B3" s="263" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="266"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="265"/>
     </row>
     <row r="4" spans="1:24" s="99" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="94"/>
@@ -8748,7 +8677,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="266" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="100">
@@ -8761,17 +8690,17 @@
       <c r="E5" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="261" t="s">
+      <c r="F5" s="260" t="s">
         <v>182</v>
       </c>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="261"/>
+      <c r="K5" s="261"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="268"/>
+      <c r="B6" s="267"/>
       <c r="C6" s="102">
         <v>75000</v>
       </c>
@@ -8783,15 +8712,15 @@
         <f t="shared" ref="E6:E10" si="1">IF(OR(($C$20&lt;$C6),$C6&lt;$C$21),"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="F6" s="261"/>
-      <c r="G6" s="262"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="268"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="104">
         <v>275000</v>
       </c>
@@ -8805,7 +8734,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="268"/>
+      <c r="B8" s="267"/>
       <c r="C8" s="104">
         <v>290000</v>
       </c>
@@ -8819,7 +8748,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="268"/>
+      <c r="B9" s="267"/>
       <c r="C9" s="104">
         <v>310000</v>
       </c>
@@ -8833,7 +8762,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="268"/>
+      <c r="B10" s="267"/>
       <c r="C10" s="104">
         <v>365000</v>
       </c>
@@ -8908,10 +8837,10 @@
     </row>
     <row r="13" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="269"/>
-      <c r="C14" s="263"/>
-      <c r="D14" s="263"/>
-      <c r="E14" s="263"/>
+      <c r="B14" s="268"/>
+      <c r="C14" s="262"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="262"/>
     </row>
     <row r="15" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="111" t="s">
@@ -9004,46 +8933,46 @@
       <c r="D25" s="92"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="263"/>
-      <c r="C26" s="263"/>
-      <c r="D26" s="263"/>
-      <c r="E26" s="263"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="262"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="262"/>
     </row>
     <row r="27" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="263"/>
-      <c r="C27" s="263"/>
-      <c r="D27" s="263"/>
-      <c r="E27" s="263"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="262"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="262"/>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="263"/>
-      <c r="C28" s="263"/>
-      <c r="D28" s="263"/>
-      <c r="E28" s="263"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="262"/>
     </row>
     <row r="29" spans="2:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="263"/>
-      <c r="C29" s="263"/>
-      <c r="D29" s="263"/>
-      <c r="E29" s="263"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="262"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="262"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="263"/>
-      <c r="C30" s="263"/>
-      <c r="D30" s="263"/>
-      <c r="E30" s="263"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="262"/>
+      <c r="D30" s="262"/>
+      <c r="E30" s="262"/>
     </row>
     <row r="31" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="263"/>
-      <c r="C31" s="263"/>
-      <c r="D31" s="263"/>
-      <c r="E31" s="263"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="262"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="262"/>
     </row>
     <row r="32" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="263"/>
-      <c r="C32" s="263"/>
-      <c r="D32" s="263"/>
-      <c r="E32" s="263"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="262"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="262"/>
     </row>
     <row r="33" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="120"/>
